--- a/Lab_01_AutoML/output/model_catalogue.xlsx
+++ b/Lab_01_AutoML/output/model_catalogue.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="129">
   <si>
     <t>Iteration</t>
   </si>
@@ -38,7 +38,7 @@
     <t>operator</t>
   </si>
   <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=2, DecisionTreeClassifier__min_samples_split=7)</t>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=91, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
   </si>
   <si>
     <t>0</t>
@@ -47,346 +47,358 @@
     <t>('ROOT',)</t>
   </si>
   <si>
+    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=37, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>GaussianNB(MultinomialNB(input_matrix, MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=False))</t>
+  </si>
+  <si>
+    <t>LogisticRegression(FeatureAgglomeration(input_matrix, FeatureAgglomeration__affinity=manhattan, FeatureAgglomeration__linkage=average), LogisticRegression__C=10.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>LogisticRegression(input_matrix, LogisticRegression__C=15.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=19, DecisionTreeClassifier__min_samples_split=12)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(FeatureAgglomeration(input_matrix, FeatureAgglomeration__affinity=l2, FeatureAgglomeration__linkage=complete), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=17, DecisionTreeClassifier__min_samples_split=9)</t>
+  </si>
+  <si>
+    <t>GaussianNB(input_matrix)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=22, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>GaussianNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=15, DecisionTreeClassifier__min_samples_split=19))</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=89, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=3, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=20)</t>
+  </si>
+  <si>
+    <t>GaussianNB(RobustScaler(input_matrix))</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(ZeroCount(input_matrix), BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(SelectPercentile(input_matrix, SelectPercentile__percentile=42), BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(PCA(input_matrix, PCA__iterated_power=8, PCA__svd_solver=randomized), KNeighborsClassifier__n_neighbors=8, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(Binarizer(input_matrix, Binarizer__threshold=0.35000000000000003), MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>LogisticRegression(input_matrix, LogisticRegression__C=0.1, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=4)</t>
+  </si>
+  <si>
+    <t>GaussianNB(ZeroCount(input_matrix))</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=95, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(Normalizer(input_matrix, Normalizer__norm=max), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=3)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(GaussianNB(input_matrix), KNeighborsClassifier__n_neighbors=21, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(CombineDFs(input_matrix, input_matrix), KNeighborsClassifier__n_neighbors=47, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=3), KNeighborsClassifier__n_neighbors=32, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(GaussianNB(input_matrix), KNeighborsClassifier__n_neighbors=61, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>GaussianNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=17, DecisionTreeClassifier__min_samples_split=8))</t>
+  </si>
+  <si>
     <t>BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)</t>
   </si>
   <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=4, DecisionTreeClassifier__min_samples_split=3)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=7, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>GaussianNB(input_matrix)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(LogisticRegression(input_matrix, LogisticRegression__C=20.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=20, DecisionTreeClassifier__min_samples_split=14)</t>
-  </si>
-  <si>
-    <t>GaussianNB(MinMaxScaler(input_matrix))</t>
-  </si>
-  <si>
-    <t>LogisticRegression(input_matrix, LogisticRegression__C=0.01, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(BernoulliNB(input_matrix, BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=False), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(Binarizer(input_matrix, Binarizer__threshold=0.6000000000000001), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=3, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=18)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=3, DecisionTreeClassifier__min_samples_leaf=2, DecisionTreeClassifier__min_samples_split=2)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=3, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=10)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(RobustScaler(input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=8)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=20)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=68, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+    <t>MultinomialNB(CombineDFs(input_matrix, input_matrix), MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(Normalizer(input_matrix, Normalizer__norm=l2), MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(SelectPercentile(input_matrix, SelectPercentile__percentile=68), BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=3, DecisionTreeClassifier__min_samples_split=7)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(RBFSampler(input_matrix, RBFSampler__gamma=0.35000000000000003), KNeighborsClassifier__n_neighbors=24, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(SelectPercentile(input_matrix, SelectPercentile__percentile=52), KNeighborsClassifier__n_neighbors=39, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>LogisticRegression(MultinomialNB(input_matrix, MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=False), LogisticRegression__C=10.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=8, DecisionTreeClassifier__min_samples_leaf=2, DecisionTreeClassifier__min_samples_split=6)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=4), BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=18, DecisionTreeClassifier__min_samples_split=2)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=79, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=95, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(Normalizer(input_matrix, Normalizer__norm=l1), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=3)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(Normalizer(input_matrix, Normalizer__norm=max), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=3)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=24, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(RBFSampler(input_matrix, RBFSampler__gamma=0.35000000000000003), KNeighborsClassifier__n_neighbors=24, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(RobustScaler(PCA(input_matrix, PCA__iterated_power=8, PCA__svd_solver=randomized)), KNeighborsClassifier__n_neighbors=8, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(PCA(input_matrix, PCA__iterated_power=8, PCA__svd_solver=randomized), KNeighborsClassifier__n_neighbors=8, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=3, DecisionTreeClassifier__min_samples_split=7)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=3, DecisionTreeClassifier__min_samples_split=7)',)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(StandardScaler(input_matrix), BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False)',)</t>
+  </si>
+  <si>
+    <t>GaussianNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=2, DecisionTreeClassifier__min_samples_split=9))</t>
+  </si>
+  <si>
+    <t>('GaussianNB(input_matrix)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(RBFSampler(input_matrix, RBFSampler__gamma=0.35000000000000003), KNeighborsClassifier__n_neighbors=24, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=47, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(CombineDFs(input_matrix, input_matrix), KNeighborsClassifier__n_neighbors=47, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=34, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=22, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)',)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(SelectPercentile(input_matrix, SelectPercentile__percentile=1), BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(SelectPercentile(input_matrix, SelectPercentile__percentile=42), BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=True)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=59, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=89, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=3)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>LogisticRegression(input_matrix, LogisticRegression__C=10.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>('LogisticRegression(FeatureAgglomeration(input_matrix, FeatureAgglomeration__affinity=manhattan, FeatureAgglomeration__linkage=average), LogisticRegression__C=10.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)',)</t>
+  </si>
+  <si>
+    <t>GaussianNB(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=23, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform))</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=3), KNeighborsClassifier__n_neighbors=68, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=3), KNeighborsClassifier__n_neighbors=32, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)',)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>('MultinomialNB(input_matrix, MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=False)',)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(SelectFwe(input_matrix, SelectFwe__alpha=0.041), MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>('MultinomialNB(input_matrix, MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=False)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(PCA(input_matrix, PCA__iterated_power=10, PCA__svd_solver=randomized), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=4)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=4)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(RBFSampler(FeatureAgglomeration(input_matrix, FeatureAgglomeration__affinity=l2, FeatureAgglomeration__linkage=average), RBFSampler__gamma=0.35000000000000003), KNeighborsClassifier__n_neighbors=24, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(RBFSampler(input_matrix, RBFSampler__gamma=0.15000000000000002), KNeighborsClassifier__n_neighbors=37, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=37, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=100, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=8, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=95, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)', 'KNeighborsClassifier(PCA(input_matrix, PCA__iterated_power=8, PCA__svd_solver=randomized), KNeighborsClassifier__n_neighbors=8, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)')</t>
+  </si>
+  <si>
+    <t>BernoulliNB(GaussianNB(input_matrix), BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>GaussianNB(BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True))</t>
+  </si>
+  <si>
+    <t>('GaussianNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=17, DecisionTreeClassifier__min_samples_split=8))',)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(Normalizer(input_matrix, Normalizer__norm=l2), MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>('MultinomialNB(Normalizer(input_matrix, Normalizer__norm=l2), MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=False)',)</t>
+  </si>
+  <si>
+    <t>LogisticRegression(MaxAbsScaler(input_matrix), LogisticRegression__C=15.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>('LogisticRegression(input_matrix, LogisticRegression__C=15.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=91, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=91, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)',)</t>
+  </si>
+  <si>
+    <t>GaussianNB(Binarizer(input_matrix, Binarizer__threshold=0.1))</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(Normalizer(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=4), Normalizer__norm=max), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=3)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(Normalizer(input_matrix, Normalizer__norm=max), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=3)', 'BernoulliNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=4), BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=False)')</t>
+  </si>
+  <si>
+    <t>BernoulliNB(FeatureAgglomeration(input_matrix, FeatureAgglomeration__affinity=cosine, FeatureAgglomeration__linkage=complete), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)',)</t>
+  </si>
+  <si>
+    <t>GaussianNB(PCA(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=17, DecisionTreeClassifier__min_samples_split=8), PCA__iterated_power=3, PCA__svd_solver=randomized))</t>
+  </si>
+  <si>
+    <t>GaussianNB(MaxAbsScaler(input_matrix))</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(CombineDFs(StandardScaler(input_matrix), input_matrix), KNeighborsClassifier__n_neighbors=47, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
   </si>
   <si>
     <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=False)</t>
   </si>
   <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=16, DecisionTreeClassifier__min_samples_split=16)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=20), BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(PCA(input_matrix, PCA__iterated_power=10, PCA__svd_solver=randomized), KNeighborsClassifier__n_neighbors=39, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=71, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=5), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=18, DecisionTreeClassifier__min_samples_split=10)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(MultinomialNB(input_matrix, MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=False), BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=12, DecisionTreeClassifier__min_samples_split=9)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(SelectPercentile(input_matrix, SelectPercentile__percentile=67), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=16, DecisionTreeClassifier__min_samples_split=14)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=10)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(ZeroCount(input_matrix), MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=18)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=66, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(GaussianNB(input_matrix), KNeighborsClassifier__n_neighbors=14, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=8, DecisionTreeClassifier__min_samples_leaf=15, DecisionTreeClassifier__min_samples_split=19)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=100, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(MinMaxScaler(input_matrix), KNeighborsClassifier__n_neighbors=65, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+    <t>('BernoulliNB(ZeroCount(input_matrix), BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=False)',)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(SelectPercentile(input_matrix, SelectPercentile__percentile=42), BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=13, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>GaussianNB(BernoulliNB(input_matrix, BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=False))</t>
   </si>
   <si>
     <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=True)</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=False)', 'BernoulliNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=20), BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=True)')</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(LogisticRegression(RBFSampler(input_matrix, RBFSampler__gamma=0.5), LogisticRegression__C=20.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=20, DecisionTreeClassifier__min_samples_split=14)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(LogisticRegression(input_matrix, LogisticRegression__C=20.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=20, DecisionTreeClassifier__min_samples_split=14)',)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(GaussianNB(input_matrix), MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('MultinomialNB(input_matrix, MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=True)',)</t>
-  </si>
-  <si>
-    <t>LogisticRegression(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.0005), LogisticRegression__C=0.01, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
-  </si>
-  <si>
-    <t>('LogisticRegression(input_matrix, LogisticRegression__C=0.01, LogisticRegression__dual=False, LogisticRegression__penalty=l2)',)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('GaussianNB(input_matrix)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(StandardScaler(LogisticRegression(input_matrix, LogisticRegression__C=20.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=20, DecisionTreeClassifier__min_samples_split=14)</t>
-  </si>
-  <si>
-    <t>GaussianNB(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.0001))</t>
-  </si>
-  <si>
-    <t>MultinomialNB(ZeroCount(MultinomialNB(input_matrix, MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=False)), MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('MultinomialNB(ZeroCount(input_matrix), MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=True)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(BernoulliNB(PCA(input_matrix, PCA__iterated_power=7, PCA__svd_solver=randomized), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=4, DecisionTreeClassifier__min_samples_split=3)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=4, DecisionTreeClassifier__min_samples_split=3)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=2, DecisionTreeClassifier__min_samples_split=7)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=2, DecisionTreeClassifier__min_samples_split=7)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(SelectPercentile(input_matrix, SelectPercentile__percentile=67), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=18, DecisionTreeClassifier__min_samples_split=14)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(SelectPercentile(input_matrix, SelectPercentile__percentile=67), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=16, DecisionTreeClassifier__min_samples_split=14)', 'DecisionTreeClassifier(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=5), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=18, DecisionTreeClassifier__min_samples_split=10)')</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=65, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(MinMaxScaler(input_matrix), KNeighborsClassifier__n_neighbors=65, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(Binarizer(input_matrix, Binarizer__threshold=0.0), KNeighborsClassifier__n_neighbors=71, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=71, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(RobustScaler(input_matrix), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=20)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=20)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(MaxAbsScaler(input_matrix), KNeighborsClassifier__n_neighbors=68, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=68, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)',)</t>
-  </si>
-  <si>
-    <t>GaussianNB(RobustScaler(input_matrix))</t>
-  </si>
-  <si>
-    <t>BernoulliNB(RBFSampler(input_matrix, RBFSampler__gamma=0.5), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)',)</t>
-  </si>
-  <si>
-    <t>GaussianNB(RBFSampler(input_matrix, RBFSampler__gamma=0.1))</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=16, DecisionTreeClassifier__min_samples_split=14)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(SelectPercentile(input_matrix, SelectPercentile__percentile=67), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=16, DecisionTreeClassifier__min_samples_split=14)', 'DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=16, DecisionTreeClassifier__min_samples_split=16)')</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=14, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(GaussianNB(input_matrix), KNeighborsClassifier__n_neighbors=14, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)',)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>('MultinomialNB(input_matrix, MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=False)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=19, DecisionTreeClassifier__min_samples_split=2)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(MinMaxScaler(input_matrix), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=5)</t>
-  </si>
-  <si>
-    <t>('GaussianNB(MinMaxScaler(input_matrix))',)</t>
-  </si>
-  <si>
-    <t>GaussianNB(PCA(input_matrix, PCA__iterated_power=10, PCA__svd_solver=randomized))</t>
-  </si>
-  <si>
-    <t>MultinomialNB(ZeroCount(ZeroCount(input_matrix)), MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(MultinomialNB(input_matrix, MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=False), BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=False)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(MaxAbsScaler(input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=3, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=10)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=3, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=10)',)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(SelectPercentile(input_matrix, SelectPercentile__percentile=67), MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(SelectPercentile(input_matrix, SelectPercentile__percentile=67), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=16, DecisionTreeClassifier__min_samples_split=14)',)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=20), MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=20), BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=True)',)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(StandardScaler(input_matrix), BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=16, DecisionTreeClassifier__min_samples_split=16)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=False), KNeighborsClassifier__n_neighbors=68, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(MultinomialNB(input_matrix, MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=16, DecisionTreeClassifier__min_samples_split=16)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(SelectPercentile(input_matrix, SelectPercentile__percentile=65), KNeighborsClassifier__n_neighbors=68, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(PCA(BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True), PCA__iterated_power=10, PCA__svd_solver=randomized), KNeighborsClassifier__n_neighbors=39, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(PCA(input_matrix, PCA__iterated_power=10, PCA__svd_solver=randomized), KNeighborsClassifier__n_neighbors=39, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=10)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=3, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=10)', 'DecisionTreeClassifier(LogisticRegression(input_matrix, LogisticRegression__C=20.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=20, DecisionTreeClassifier__min_samples_split=14)')</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(Binarizer(input_matrix, Binarizer__threshold=0.6000000000000001), KNeighborsClassifier__n_neighbors=41, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(Binarizer(input_matrix, Binarizer__threshold=0.6000000000000001), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=3, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=18)',)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>GaussianNB(RBFSampler(input_matrix, RBFSampler__gamma=0.5))</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=18, DecisionTreeClassifier__min_samples_split=10)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=5), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=18, DecisionTreeClassifier__min_samples_split=10)',)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(MaxAbsScaler(input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=12, DecisionTreeClassifier__min_samples_split=9)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=12, DecisionTreeClassifier__min_samples_split=9)',)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=39, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(GaussianNB(input_matrix), KNeighborsClassifier__n_neighbors=71, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=3)</t>
+    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=True)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(PCA(input_matrix, PCA__iterated_power=6, PCA__svd_solver=randomized), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=8, DecisionTreeClassifier__min_samples_leaf=2, DecisionTreeClassifier__min_samples_split=6)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=8, DecisionTreeClassifier__min_samples_leaf=2, DecisionTreeClassifier__min_samples_split=6)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(PCA(input_matrix, PCA__iterated_power=1, PCA__svd_solver=randomized), KNeighborsClassifier__n_neighbors=47, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=74, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(SelectFwe(input_matrix, SelectFwe__alpha=0.028), KNeighborsClassifier__n_neighbors=37, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
   </si>
 </sst>
 </file>
@@ -431,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -478,7 +490,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7375463463463463</v>
+        <v>0.7397507507507507</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -504,7 +516,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.640927927927928</v>
+        <v>0.7365473473473474</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -530,7 +542,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.732546946946947</v>
+        <v>0.7417513513513514</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>12</v>
@@ -556,7 +568,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.7375463463463463</v>
+        <v>0.6415277277277277</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>13</v>
@@ -582,7 +594,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.718946146146146</v>
+        <v>0.7365473473473474</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>14</v>
@@ -600,7 +612,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -608,7 +620,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.7363465465465465</v>
+        <v>0.7365473473473474</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>15</v>
@@ -634,7 +646,7 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.7375463463463463</v>
+        <v>0.7411507507507508</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>16</v>
@@ -660,7 +672,7 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.7363465465465465</v>
+        <v>0.7365473473473474</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>17</v>
@@ -686,7 +698,7 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.7317463463463463</v>
+        <v>0.7349465465465466</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>18</v>
@@ -712,7 +724,7 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.640927927927928</v>
+        <v>0.7333509509509509</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>19</v>
@@ -730,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -738,7 +750,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.7317463463463463</v>
+        <v>0.7025391391391391</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>20</v>
@@ -764,7 +776,7 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.640927927927928</v>
+        <v>0.7425515515515515</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>21</v>
@@ -790,7 +802,7 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.7401463463463465</v>
+        <v>0.7447515515515515</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>22</v>
@@ -816,7 +828,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.7389463463463464</v>
+        <v>0.7349465465465466</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>23</v>
@@ -834,7 +846,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
@@ -842,7 +854,7 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.7317463463463463</v>
+        <v>0.6415277277277277</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>24</v>
@@ -860,7 +872,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -868,7 +880,7 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.7317463463463463</v>
+        <v>0.6403269269269269</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>25</v>
@@ -886,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -894,7 +906,7 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.7391465465465465</v>
+        <v>0.7365473473473474</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>26</v>
@@ -912,7 +924,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
@@ -920,7 +932,7 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.640927927927928</v>
+        <v>0.731548948948949</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>27</v>
@@ -938,7 +950,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
@@ -946,7 +958,7 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.7333469469469469</v>
+        <v>0.652125925925926</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>28</v>
@@ -964,7 +976,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
@@ -972,7 +984,7 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.6393273273273273</v>
+        <v>0.7365473473473474</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>29</v>
@@ -998,7 +1010,7 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.7375463463463463</v>
+        <v>0.7369515515515515</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>30</v>
@@ -1024,7 +1036,7 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.732546946946947</v>
+        <v>0.6403269269269269</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>31</v>
@@ -1050,7 +1062,7 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.7317463463463463</v>
+        <v>0.7413507507507509</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>32</v>
@@ -1076,7 +1088,7 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.7327457457457458</v>
+        <v>0.7365473473473474</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>33</v>
@@ -1094,7 +1106,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
@@ -1102,7 +1114,7 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.7401463463463465</v>
+        <v>0.7365473473473474</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>34</v>
@@ -1120,7 +1132,7 @@
         <v>10</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
@@ -1128,7 +1140,7 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.7393463463463463</v>
+        <v>0.7369497497497497</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>35</v>
@@ -1154,7 +1166,7 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.640927927927928</v>
+        <v>0.7429515515515515</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>36</v>
@@ -1172,7 +1184,7 @@
         <v>10</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
@@ -1180,7 +1192,7 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.7393463463463463</v>
+        <v>0.6403269269269269</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>37</v>
@@ -1206,7 +1218,7 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.7317463463463463</v>
+        <v>0.6415277277277277</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>38</v>
@@ -1224,7 +1236,7 @@
         <v>10</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
@@ -1232,7 +1244,7 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.7393463463463463</v>
+        <v>0.7353465465465465</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>39</v>
@@ -1250,7 +1262,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
@@ -1258,7 +1270,7 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.7333469469469469</v>
+        <v>0.7353481481481481</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>40</v>
@@ -1284,7 +1296,7 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0.7375463463463463</v>
+        <v>0.7409505505505505</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>41</v>
@@ -1302,7 +1314,7 @@
         <v>10</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="34">
@@ -1310,7 +1322,7 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.7401463463463465</v>
+        <v>0.697138938938939</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>42</v>
@@ -1328,7 +1340,7 @@
         <v>10</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="35">
@@ -1336,7 +1348,7 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.7317465465465466</v>
+        <v>0.6403269269269269</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>43</v>
@@ -1354,7 +1366,7 @@
         <v>10</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1374,7 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.7375463463463463</v>
+        <v>0.6415277277277277</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>44</v>
@@ -1388,7 +1400,7 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0.7375463463463463</v>
+        <v>0.6415277277277277</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>45</v>
@@ -1414,7 +1426,7 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.7317463463463463</v>
+        <v>0.6415277277277277</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>46</v>
@@ -1432,7 +1444,7 @@
         <v>10</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="39">
@@ -1440,7 +1452,7 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.7401463463463465</v>
+        <v>0.7365473473473474</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>47</v>
@@ -1466,25 +1478,25 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.732546946946947</v>
+        <v>0.7369515515515515</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>48</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="41">
@@ -1492,25 +1504,25 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.7375463463463463</v>
+        <v>0.7375501501501501</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
@@ -1518,22 +1530,22 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0.7363465465465465</v>
+        <v>0.7365473473473474</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>2.0</v>
@@ -1544,22 +1556,22 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0.7317463463463463</v>
+        <v>0.7365473473473474</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>2.0</v>
@@ -1570,22 +1582,22 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0.732546946946947</v>
+        <v>0.7425515515515515</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>1.0</v>
@@ -1596,25 +1608,25 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.7375463463463463</v>
+        <v>0.6403269269269269</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="46">
@@ -1622,25 +1634,25 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0.7363465465465465</v>
+        <v>0.7365473473473474</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
@@ -1648,25 +1660,25 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0.7317463463463463</v>
+        <v>0.7423515515515515</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="48">
@@ -1674,13 +1686,13 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>0.7375463463463463</v>
+        <v>0.7455507507507508</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>1.0</v>
@@ -1689,10 +1701,10 @@
         <v>0.0</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
@@ -1700,13 +1712,13 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0.7375463463463463</v>
+        <v>0.7365473473473474</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>1.0</v>
@@ -1715,10 +1727,10 @@
         <v>0.0</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="50">
@@ -1726,25 +1738,25 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0.7317463463463463</v>
+        <v>0.735150950950951</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
@@ -1752,13 +1764,13 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0.7401463463463465</v>
+        <v>0.725745945945946</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>1.0</v>
@@ -1767,10 +1779,10 @@
         <v>0.0</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="52">
@@ -1778,13 +1790,13 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0.7333469469469469</v>
+        <v>0.7369515515515515</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>1.0</v>
@@ -1793,7 +1805,7 @@
         <v>0.0</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>2.0</v>
@@ -1804,13 +1816,13 @@
         <v>51.0</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0.7317463463463463</v>
+        <v>0.6403269269269269</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>1.0</v>
@@ -1819,7 +1831,7 @@
         <v>0.0</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>2.0</v>
@@ -1830,13 +1842,13 @@
         <v>52.0</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>0.7391465465465465</v>
+        <v>0.6939441441441442</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>1.0</v>
@@ -1845,7 +1857,7 @@
         <v>0.0</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>2.0</v>
@@ -1856,13 +1868,13 @@
         <v>53.0</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>0.7363465465465465</v>
+        <v>0.7449505505505505</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>1.0</v>
@@ -1871,7 +1883,7 @@
         <v>0.0</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>2.0</v>
@@ -1882,13 +1894,13 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>0.640927927927928</v>
+        <v>0.7429515515515515</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>1.0</v>
@@ -1897,10 +1909,10 @@
         <v>0.0</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="57">
@@ -1908,13 +1920,13 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0.640927927927928</v>
+        <v>0.7437515515515515</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>1.0</v>
@@ -1923,10 +1935,10 @@
         <v>0.0</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="58">
@@ -1934,25 +1946,25 @@
         <v>56.0</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0.7375463463463463</v>
+        <v>0.7365473473473474</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="59">
@@ -1960,13 +1972,13 @@
         <v>57.0</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0.7257465465465465</v>
+        <v>0.7411515515515515</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>1.0</v>
@@ -1975,7 +1987,7 @@
         <v>0.0</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>1.0</v>
@@ -1986,13 +1998,13 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0.6393273273273273</v>
+        <v>0.7425515515515515</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>1.0</v>
@@ -2001,7 +2013,7 @@
         <v>0.0</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>1.0</v>
@@ -2012,13 +2024,13 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0.7317463463463463</v>
+        <v>0.7365473473473474</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>1.0</v>
@@ -2027,7 +2039,7 @@
         <v>0.0</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>1.0</v>
@@ -2038,13 +2050,13 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>0.7375463463463463</v>
+        <v>0.7365473473473474</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>1.0</v>
@@ -2053,10 +2065,10 @@
         <v>0.0</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="63">
@@ -2064,13 +2076,13 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>0.7391465465465465</v>
+        <v>0.6921457457457458</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>1.0</v>
@@ -2079,7 +2091,7 @@
         <v>0.0</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>2.0</v>
@@ -2090,13 +2102,13 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>0.7333469469469469</v>
+        <v>0.7381483483483484</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>1.0</v>
@@ -2105,10 +2117,10 @@
         <v>0.0</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="65">
@@ -2116,13 +2128,13 @@
         <v>63.0</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>0.640927927927928</v>
+        <v>0.7365473473473474</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>1.0</v>
@@ -2131,10 +2143,10 @@
         <v>0.0</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="66">
@@ -2142,13 +2154,13 @@
         <v>64.0</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>0.7389463463463464</v>
+        <v>0.6415277277277277</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>1.0</v>
@@ -2157,7 +2169,7 @@
         <v>0.0</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>2.0</v>
@@ -2168,13 +2180,13 @@
         <v>65.0</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>0.7317463463463463</v>
+        <v>0.7369515515515515</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>1.0</v>
@@ -2183,7 +2195,7 @@
         <v>0.0</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>2.0</v>
@@ -2194,13 +2206,13 @@
         <v>66.0</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>0.7317463463463463</v>
+        <v>0.729947947947948</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>1.0</v>
@@ -2209,10 +2221,10 @@
         <v>0.0</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="69">
@@ -2220,13 +2232,13 @@
         <v>67.0</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>0.640927927927928</v>
+        <v>0.7373515515515515</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>1.0</v>
@@ -2235,7 +2247,7 @@
         <v>0.0</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>2.0</v>
@@ -2246,13 +2258,13 @@
         <v>68.0</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>0.732546946946947</v>
+        <v>0.7413507507507507</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>1.0</v>
@@ -2261,7 +2273,7 @@
         <v>0.0</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>1.0</v>
@@ -2272,25 +2284,25 @@
         <v>69.0</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>0.7377463463463464</v>
+        <v>0.734748148148148</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="72">
@@ -2298,13 +2310,13 @@
         <v>70.0</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>0.7375463463463463</v>
+        <v>0.6403269269269269</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>1.0</v>
@@ -2313,7 +2325,7 @@
         <v>0.0</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>2.0</v>
@@ -2324,13 +2336,13 @@
         <v>71.0</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>0.640927927927928</v>
+        <v>0.6403269269269269</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>1.0</v>
@@ -2339,10 +2351,10 @@
         <v>0.0</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="74">
@@ -2350,13 +2362,13 @@
         <v>72.0</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>0.7317463463463463</v>
+        <v>0.7365473473473474</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>1.0</v>
@@ -2365,7 +2377,7 @@
         <v>0.0</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>2.0</v>
@@ -2376,13 +2388,13 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>0.7343457457457457</v>
+        <v>0.7365473473473474</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>1.0</v>
@@ -2391,10 +2403,10 @@
         <v>0.0</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="76">
@@ -2402,22 +2414,22 @@
         <v>74.0</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>0.7375463463463463</v>
+        <v>0.7425515515515515</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>1.0</v>
@@ -2428,13 +2440,13 @@
         <v>75.0</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>0.7317463463463463</v>
+        <v>0.7405505505505505</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>1.0</v>
@@ -2443,7 +2455,7 @@
         <v>0.0</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>2.0</v>
@@ -2454,13 +2466,13 @@
         <v>76.0</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>0.7317463463463463</v>
+        <v>0.7365473473473474</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>1.0</v>
@@ -2469,7 +2481,7 @@
         <v>0.0</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H78" s="0" t="n">
         <v>1.0</v>
@@ -2480,25 +2492,25 @@
         <v>77.0</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>0.640927927927928</v>
+        <v>0.7425515515515515</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="80">
@@ -2506,13 +2518,13 @@
         <v>78.0</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>0.7393463463463463</v>
+        <v>0.6403269269269269</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>1.0</v>
@@ -2521,10 +2533,10 @@
         <v>0.0</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="81">
@@ -2532,13 +2544,13 @@
         <v>79.0</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>0.6393273273273273</v>
+        <v>0.7405515515515515</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>1.0</v>
@@ -2547,10 +2559,10 @@
         <v>0.0</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="82">
@@ -2558,13 +2570,13 @@
         <v>80.0</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>0.7393463463463463</v>
+        <v>0.7349465465465466</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>1.0</v>
@@ -2573,7 +2585,7 @@
         <v>0.0</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>2.0</v>
@@ -2584,13 +2596,13 @@
         <v>81.0</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>0.7333469469469469</v>
+        <v>0.7429515515515515</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>1.0</v>
@@ -2599,10 +2611,10 @@
         <v>0.0</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="84">
@@ -2610,13 +2622,13 @@
         <v>82.0</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>0.736747147147147</v>
+        <v>0.6403269269269269</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>1.0</v>
@@ -2625,7 +2637,7 @@
         <v>0.0</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>1.0</v>
@@ -2636,13 +2648,13 @@
         <v>83.0</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>0.7393463463463463</v>
+        <v>0.6403269269269269</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>1.0</v>
@@ -2651,7 +2663,7 @@
         <v>0.0</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>2.0</v>
@@ -2662,24 +2674,180 @@
         <v>84.0</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>0.7375463463463463</v>
+        <v>0.7251445445445445</v>
       </c>
       <c r="C86" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>0.6403269269269269</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H87" s="0" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>0.7365473473473474</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>0.7425515515515515</v>
+      </c>
+      <c r="C89" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="D86" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E86" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F86" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G86" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="H86" s="0" t="n">
+      <c r="D89" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="H89" s="0" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>0.7365511511511512</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>0.7453515515515516</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H91" s="0" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>0.7417513513513514</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="H92" s="0" t="n">
         <v>2.0</v>
       </c>
     </row>

--- a/Lab_01_AutoML/output/model_catalogue.xlsx
+++ b/Lab_01_AutoML/output/model_catalogue.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="138">
   <si>
     <t>Iteration</t>
   </si>
@@ -38,7 +38,7 @@
     <t>operator</t>
   </si>
   <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=91, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+    <t>KNeighborsClassifier(CombineDFs(input_matrix, input_matrix), KNeighborsClassifier__n_neighbors=23, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
   </si>
   <si>
     <t>0</t>
@@ -47,358 +47,385 @@
     <t>('ROOT',)</t>
   </si>
   <si>
+    <t>KNeighborsClassifier(FeatureAgglomeration(input_matrix, FeatureAgglomeration__affinity=manhattan, FeatureAgglomeration__linkage=average), KNeighborsClassifier__n_neighbors=94, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(Normalizer(input_matrix, Normalizer__norm=l2), BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(CombineDFs(input_matrix, input_matrix), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=2)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.2), KNeighborsClassifier__n_neighbors=84, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>GaussianNB(input_matrix)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(CombineDFs(input_matrix, input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=10)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>LogisticRegression(input_matrix, LogisticRegression__C=1.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>GaussianNB(SelectPercentile(input_matrix, SelectPercentile__percentile=9))</t>
+  </si>
+  <si>
+    <t>BernoulliNB(Binarizer(input_matrix, Binarizer__threshold=0.15000000000000002), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(SelectPercentile(input_matrix, SelectPercentile__percentile=55), MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=30, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=19)</t>
+  </si>
+  <si>
+    <t>GaussianNB(MaxAbsScaler(input_matrix))</t>
+  </si>
+  <si>
+    <t>BernoulliNB(SelectPercentile(input_matrix, SelectPercentile__percentile=23), BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(Binarizer(input_matrix, Binarizer__threshold=0.8500000000000001), KNeighborsClassifier__n_neighbors=89, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=9, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=31, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(CombineDFs(input_matrix, input_matrix), MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=15, DecisionTreeClassifier__min_samples_split=5), BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>GaussianNB(RBFSampler(input_matrix, RBFSampler__gamma=0.05))</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=3, DecisionTreeClassifier__min_samples_split=6)</t>
+  </si>
+  <si>
+    <t>GaussianNB(MultinomialNB(input_matrix, MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=False))</t>
+  </si>
+  <si>
+    <t>BernoulliNB(GaussianNB(input_matrix), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=14, DecisionTreeClassifier__min_samples_split=16)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=8)</t>
+  </si>
+  <si>
+    <t>GaussianNB(BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False))</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=3, DecisionTreeClassifier__min_samples_leaf=14, DecisionTreeClassifier__min_samples_split=7)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=14, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
     <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)</t>
   </si>
   <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=37, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>GaussianNB(MultinomialNB(input_matrix, MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=False))</t>
-  </si>
-  <si>
-    <t>LogisticRegression(FeatureAgglomeration(input_matrix, FeatureAgglomeration__affinity=manhattan, FeatureAgglomeration__linkage=average), LogisticRegression__C=10.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+    <t>GaussianNB(StandardScaler(input_matrix))</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(StandardScaler(input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=6, DecisionTreeClassifier__min_samples_split=6)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=15)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=31, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=11)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(MinMaxScaler(input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=13)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=2, DecisionTreeClassifier__min_samples_split=19)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(PCA(input_matrix, PCA__iterated_power=9, PCA__svd_solver=randomized), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=False)</t>
   </si>
   <si>
     <t>LogisticRegression(input_matrix, LogisticRegression__C=15.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
   </si>
   <si>
-    <t>DecisionTreeClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=19, DecisionTreeClassifier__min_samples_split=12)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(FeatureAgglomeration(input_matrix, FeatureAgglomeration__affinity=l2, FeatureAgglomeration__linkage=complete), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=17, DecisionTreeClassifier__min_samples_split=9)</t>
-  </si>
-  <si>
-    <t>GaussianNB(input_matrix)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=22, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>GaussianNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=15, DecisionTreeClassifier__min_samples_split=19))</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=89, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=3, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=20)</t>
-  </si>
-  <si>
-    <t>GaussianNB(RobustScaler(input_matrix))</t>
-  </si>
-  <si>
-    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(ZeroCount(input_matrix), BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(SelectPercentile(input_matrix, SelectPercentile__percentile=42), BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(PCA(input_matrix, PCA__iterated_power=8, PCA__svd_solver=randomized), KNeighborsClassifier__n_neighbors=8, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(Binarizer(input_matrix, Binarizer__threshold=0.35000000000000003), MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>LogisticRegression(input_matrix, LogisticRegression__C=0.1, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=4)</t>
-  </si>
-  <si>
-    <t>GaussianNB(ZeroCount(input_matrix))</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=95, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(Normalizer(input_matrix, Normalizer__norm=max), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=3)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(GaussianNB(input_matrix), KNeighborsClassifier__n_neighbors=21, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(CombineDFs(input_matrix, input_matrix), KNeighborsClassifier__n_neighbors=47, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=16)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=20)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>('LogisticRegression(input_matrix, LogisticRegression__C=15.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)',)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(SelectFwe(input_matrix, SelectFwe__alpha=0.022), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(FeatureAgglomeration(input_matrix, FeatureAgglomeration__affinity=l2, FeatureAgglomeration__linkage=complete), KNeighborsClassifier__n_neighbors=14, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=14, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)',)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(RBFSampler(input_matrix, RBFSampler__gamma=0.05), BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>('GaussianNB(RBFSampler(input_matrix, RBFSampler__gamma=0.05))',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=True), KNeighborsClassifier__n_neighbors=9, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=9, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)',)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(RBFSampler(input_matrix, RBFSampler__gamma=0.8), BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=True)',)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(PCA(RBFSampler(input_matrix, RBFSampler__gamma=1.0), PCA__iterated_power=9, PCA__svd_solver=randomized), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(PCA(input_matrix, PCA__iterated_power=9, PCA__svd_solver=randomized), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)',)</t>
   </si>
   <si>
     <t>BernoulliNB(input_matrix, BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False)</t>
   </si>
   <si>
-    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=3), KNeighborsClassifier__n_neighbors=32, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(GaussianNB(input_matrix), KNeighborsClassifier__n_neighbors=61, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>GaussianNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=17, DecisionTreeClassifier__min_samples_split=8))</t>
-  </si>
-  <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(CombineDFs(input_matrix, input_matrix), MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(Normalizer(input_matrix, Normalizer__norm=l2), MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(SelectPercentile(input_matrix, SelectPercentile__percentile=68), BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=3, DecisionTreeClassifier__min_samples_split=7)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(RBFSampler(input_matrix, RBFSampler__gamma=0.35000000000000003), KNeighborsClassifier__n_neighbors=24, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(SelectPercentile(input_matrix, SelectPercentile__percentile=52), KNeighborsClassifier__n_neighbors=39, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>LogisticRegression(MultinomialNB(input_matrix, MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=False), LogisticRegression__C=10.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=8, DecisionTreeClassifier__min_samples_leaf=2, DecisionTreeClassifier__min_samples_split=6)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=4), BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=False)</t>
+    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=False)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(CombineDFs(BernoulliNB(input_matrix, BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=True), input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=10)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(CombineDFs(input_matrix, input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=10)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(CombineDFs(input_matrix, input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=16)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=16)',)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>('MultinomialNB(input_matrix, MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=True)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=16)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=19)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=30, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=19)',)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(RobustScaler(Binarizer(input_matrix, Binarizer__threshold=0.15000000000000002)), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(Binarizer(input_matrix, Binarizer__threshold=0.15000000000000002), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False)',)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(MinMaxScaler(input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=18, DecisionTreeClassifier__min_samples_split=13)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(MinMaxScaler(input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=13)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=4, DecisionTreeClassifier__min_samples_split=6)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=3, DecisionTreeClassifier__min_samples_split=6)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(StandardScaler(input_matrix), KNeighborsClassifier__n_neighbors=35, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>('GaussianNB(StandardScaler(input_matrix))',)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(CombineDFs(input_matrix, MultinomialNB(input_matrix, MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=False)), MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>('MultinomialNB(CombineDFs(input_matrix, input_matrix), MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=False)',)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(CombineDFs(input_matrix, DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=20, DecisionTreeClassifier__min_samples_split=5)), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=10)</t>
+  </si>
+  <si>
+    <t>GaussianNB(BernoulliNB(input_matrix, BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=False))</t>
+  </si>
+  <si>
+    <t>('GaussianNB(BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False))',)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(PCA(input_matrix, PCA__iterated_power=4, PCA__svd_solver=randomized), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(PCA(MaxAbsScaler(input_matrix), PCA__iterated_power=9, PCA__svd_solver=randomized), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>LogisticRegression(SelectPercentile(input_matrix, SelectPercentile__percentile=27), LogisticRegression__C=15.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(StandardScaler(CombineDFs(input_matrix, input_matrix)), KNeighborsClassifier__n_neighbors=23, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(CombineDFs(input_matrix, input_matrix), KNeighborsClassifier__n_neighbors=23, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)',)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)',)</t>
+  </si>
+  <si>
+    <t>LogisticRegression(input_matrix, LogisticRegression__C=0.01, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>('LogisticRegression(input_matrix, LogisticRegression__C=1.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=15)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=11)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=93, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>('GaussianNB(input_matrix)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=8)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=8)',)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(MinMaxScaler(input_matrix), MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(Binarizer(input_matrix, Binarizer__threshold=0.30000000000000004), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(PCA(input_matrix, PCA__iterated_power=9, PCA__svd_solver=randomized), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(ZeroCount(input_matrix), KNeighborsClassifier__n_neighbors=9, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(ZeroCount(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=30, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=19)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(Binarizer(input_matrix, Binarizer__threshold=0.9500000000000001), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=14, DecisionTreeClassifier__min_samples_split=16)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=14, DecisionTreeClassifier__min_samples_split=16)',)</t>
   </si>
   <si>
     <t>BernoulliNB(input_matrix, BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=True)</t>
   </si>
   <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=18, DecisionTreeClassifier__min_samples_split=2)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=79, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=95, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(Normalizer(input_matrix, Normalizer__norm=l1), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=3)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(Normalizer(input_matrix, Normalizer__norm=max), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=3)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=24, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(RBFSampler(input_matrix, RBFSampler__gamma=0.35000000000000003), KNeighborsClassifier__n_neighbors=24, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(RobustScaler(PCA(input_matrix, PCA__iterated_power=8, PCA__svd_solver=randomized)), KNeighborsClassifier__n_neighbors=8, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(PCA(input_matrix, PCA__iterated_power=8, PCA__svd_solver=randomized), KNeighborsClassifier__n_neighbors=8, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=3, DecisionTreeClassifier__min_samples_split=7)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=3, DecisionTreeClassifier__min_samples_split=7)',)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(StandardScaler(input_matrix), BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False)',)</t>
-  </si>
-  <si>
-    <t>GaussianNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=2, DecisionTreeClassifier__min_samples_split=9))</t>
-  </si>
-  <si>
-    <t>('GaussianNB(input_matrix)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(RBFSampler(input_matrix, RBFSampler__gamma=0.35000000000000003), KNeighborsClassifier__n_neighbors=24, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=47, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(CombineDFs(input_matrix, input_matrix), KNeighborsClassifier__n_neighbors=47, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=34, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=22, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)',)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(SelectPercentile(input_matrix, SelectPercentile__percentile=1), BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(SelectPercentile(input_matrix, SelectPercentile__percentile=42), BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=True)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=59, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=89, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=3)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>LogisticRegression(input_matrix, LogisticRegression__C=10.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
-  </si>
-  <si>
-    <t>('LogisticRegression(FeatureAgglomeration(input_matrix, FeatureAgglomeration__affinity=manhattan, FeatureAgglomeration__linkage=average), LogisticRegression__C=10.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)',)</t>
-  </si>
-  <si>
-    <t>GaussianNB(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=23, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform))</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=3), KNeighborsClassifier__n_neighbors=68, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=3), KNeighborsClassifier__n_neighbors=32, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)',)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('MultinomialNB(input_matrix, MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=False)',)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(SelectFwe(input_matrix, SelectFwe__alpha=0.041), MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>('MultinomialNB(input_matrix, MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=False)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(PCA(input_matrix, PCA__iterated_power=10, PCA__svd_solver=randomized), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=4)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=4)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(RBFSampler(FeatureAgglomeration(input_matrix, FeatureAgglomeration__affinity=l2, FeatureAgglomeration__linkage=average), RBFSampler__gamma=0.35000000000000003), KNeighborsClassifier__n_neighbors=24, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(RBFSampler(input_matrix, RBFSampler__gamma=0.15000000000000002), KNeighborsClassifier__n_neighbors=37, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=37, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=100, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=8, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=95, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)', 'KNeighborsClassifier(PCA(input_matrix, PCA__iterated_power=8, PCA__svd_solver=randomized), KNeighborsClassifier__n_neighbors=8, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)')</t>
-  </si>
-  <si>
-    <t>BernoulliNB(GaussianNB(input_matrix), BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>GaussianNB(BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True))</t>
-  </si>
-  <si>
-    <t>('GaussianNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=17, DecisionTreeClassifier__min_samples_split=8))',)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(Normalizer(input_matrix, Normalizer__norm=l2), MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('MultinomialNB(Normalizer(input_matrix, Normalizer__norm=l2), MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=False)',)</t>
-  </si>
-  <si>
-    <t>LogisticRegression(MaxAbsScaler(input_matrix), LogisticRegression__C=15.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
-  </si>
-  <si>
-    <t>('LogisticRegression(input_matrix, LogisticRegression__C=15.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=91, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=91, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)',)</t>
-  </si>
-  <si>
-    <t>GaussianNB(Binarizer(input_matrix, Binarizer__threshold=0.1))</t>
-  </si>
-  <si>
-    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(Normalizer(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=4), Normalizer__norm=max), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=3)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(Normalizer(input_matrix, Normalizer__norm=max), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=3)', 'BernoulliNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=4), BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=False)')</t>
-  </si>
-  <si>
-    <t>BernoulliNB(FeatureAgglomeration(input_matrix, FeatureAgglomeration__affinity=cosine, FeatureAgglomeration__linkage=complete), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)',)</t>
-  </si>
-  <si>
-    <t>GaussianNB(PCA(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=17, DecisionTreeClassifier__min_samples_split=8), PCA__iterated_power=3, PCA__svd_solver=randomized))</t>
-  </si>
-  <si>
-    <t>GaussianNB(MaxAbsScaler(input_matrix))</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(CombineDFs(StandardScaler(input_matrix), input_matrix), KNeighborsClassifier__n_neighbors=47, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(ZeroCount(input_matrix), BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=False)',)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(SelectPercentile(input_matrix, SelectPercentile__percentile=42), BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=13, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>GaussianNB(BernoulliNB(input_matrix, BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=False))</t>
-  </si>
-  <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=True)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(PCA(input_matrix, PCA__iterated_power=6, PCA__svd_solver=randomized), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=8, DecisionTreeClassifier__min_samples_leaf=2, DecisionTreeClassifier__min_samples_split=6)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=8, DecisionTreeClassifier__min_samples_leaf=2, DecisionTreeClassifier__min_samples_split=6)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(PCA(input_matrix, PCA__iterated_power=1, PCA__svd_solver=randomized), KNeighborsClassifier__n_neighbors=47, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=74, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(SelectFwe(input_matrix, SelectFwe__alpha=0.028), KNeighborsClassifier__n_neighbors=37, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+    <t>KNeighborsClassifier(Normalizer(input_matrix, Normalizer__norm=l1), KNeighborsClassifier__n_neighbors=31, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=31, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=13)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=16)', 'DecisionTreeClassifier(MinMaxScaler(input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=13)')</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(Binarizer(input_matrix, Binarizer__threshold=0.8500000000000001), KNeighborsClassifier__n_neighbors=51, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(Binarizer(input_matrix, Binarizer__threshold=0.8500000000000001), KNeighborsClassifier__n_neighbors=89, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)',)</t>
+  </si>
+  <si>
+    <t>GaussianNB(SelectPercentile(input_matrix, SelectPercentile__percentile=84))</t>
+  </si>
+  <si>
+    <t>('GaussianNB(SelectPercentile(input_matrix, SelectPercentile__percentile=9))',)</t>
+  </si>
+  <si>
+    <t>GaussianNB(SelectPercentile(StandardScaler(input_matrix), SelectPercentile__percentile=51))</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(MultinomialNB(input_matrix, MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=16)</t>
+  </si>
+  <si>
+    <t>GaussianNB(StandardScaler(MultinomialNB(input_matrix, MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=False)))</t>
+  </si>
+  <si>
+    <t>('GaussianNB(MultinomialNB(input_matrix, MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=False))',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=14, DecisionTreeClassifier__min_samples_split=7)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=3, DecisionTreeClassifier__min_samples_leaf=14, DecisionTreeClassifier__min_samples_split=7)',)</t>
+  </si>
+  <si>
+    <t>GaussianNB(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.05))</t>
+  </si>
+  <si>
+    <t>GaussianNB(CombineDFs(input_matrix, input_matrix))</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=9)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=15)',)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(ZeroCount(input_matrix), MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=False)</t>
   </si>
 </sst>
 </file>
@@ -443,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -490,7 +517,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7397507507507507</v>
+        <v>0.7387481481481482</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -516,7 +543,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.7365473473473474</v>
+        <v>0.7447495495495495</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -534,7 +561,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -542,7 +569,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.7417513513513514</v>
+        <v>0.6441301301301301</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>12</v>
@@ -560,7 +587,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -568,7 +595,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.6415277277277277</v>
+        <v>0.7405481481481482</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>13</v>
@@ -586,7 +613,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -594,7 +621,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.7365473473473474</v>
+        <v>0.7405481481481482</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>14</v>
@@ -620,7 +647,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.7365473473473474</v>
+        <v>0.7469491491491491</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>15</v>
@@ -646,7 +673,7 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.7411507507507508</v>
+        <v>0.743548948948949</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>16</v>
@@ -664,7 +691,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -672,7 +699,7 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.7365473473473474</v>
+        <v>0.7425487487487488</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>17</v>
@@ -690,7 +717,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -698,7 +725,7 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.7349465465465466</v>
+        <v>0.7405481481481482</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>18</v>
@@ -724,7 +751,7 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.7333509509509509</v>
+        <v>0.7405481481481482</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>19</v>
@@ -742,7 +769,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -750,7 +777,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.7025391391391391</v>
+        <v>0.6441301301301301</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>20</v>
@@ -776,7 +803,7 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.7425515515515515</v>
+        <v>0.7405481481481482</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>21</v>
@@ -794,7 +821,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
@@ -802,7 +829,7 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.7447515515515515</v>
+        <v>0.743548948948949</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>22</v>
@@ -820,7 +847,7 @@
         <v>10</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -828,7 +855,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.7349465465465466</v>
+        <v>0.7469491491491491</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>23</v>
@@ -854,7 +881,7 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.6415277277277277</v>
+        <v>0.6441301301301301</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>24</v>
@@ -872,7 +899,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
@@ -880,7 +907,7 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.6403269269269269</v>
+        <v>0.6421295295295295</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>25</v>
@@ -898,7 +925,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -906,7 +933,7 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.7365473473473474</v>
+        <v>0.7405481481481482</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>26</v>
@@ -932,7 +959,7 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.731548948948949</v>
+        <v>0.7301469469469469</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>27</v>
@@ -950,7 +977,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -958,7 +985,7 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.652125925925926</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>28</v>
@@ -976,7 +1003,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -984,7 +1011,7 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.7365473473473474</v>
+        <v>0.7405481481481482</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>29</v>
@@ -1010,7 +1037,7 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.7369515515515515</v>
+        <v>0.6421295295295295</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>30</v>
@@ -1036,7 +1063,7 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.6403269269269269</v>
+        <v>0.6441301301301301</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>31</v>
@@ -1062,7 +1089,7 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.7413507507507509</v>
+        <v>0.6441301301301301</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>32</v>
@@ -1080,7 +1107,7 @@
         <v>10</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
@@ -1088,7 +1115,7 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.7365473473473474</v>
+        <v>0.743548948948949</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>33</v>
@@ -1114,7 +1141,7 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.7365473473473474</v>
+        <v>0.6421295295295295</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>34</v>
@@ -1140,7 +1167,7 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.7369497497497497</v>
+        <v>0.6441301301301301</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>35</v>
@@ -1166,7 +1193,7 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.7429515515515515</v>
+        <v>0.743548948948949</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>36</v>
@@ -1192,7 +1219,7 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.6403269269269269</v>
+        <v>0.6441301301301301</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>37</v>
@@ -1218,7 +1245,7 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.6415277277277277</v>
+        <v>0.743548948948949</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>38</v>
@@ -1244,7 +1271,7 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.7353465465465465</v>
+        <v>0.6441301301301301</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>39</v>
@@ -1262,7 +1289,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="32">
@@ -1270,7 +1297,7 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.7353481481481481</v>
+        <v>0.7453491491491491</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>40</v>
@@ -1288,7 +1315,7 @@
         <v>10</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
@@ -1296,7 +1323,7 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0.7409505505505505</v>
+        <v>0.7371485485485485</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>41</v>
@@ -1314,7 +1341,7 @@
         <v>10</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
@@ -1322,7 +1349,7 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.697138938938939</v>
+        <v>0.7411487487487488</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>42</v>
@@ -1340,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
@@ -1348,7 +1375,7 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.6403269269269269</v>
+        <v>0.7469491491491491</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>43</v>
@@ -1366,7 +1393,7 @@
         <v>10</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="36">
@@ -1374,7 +1401,7 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.6415277277277277</v>
+        <v>0.743548948948949</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>44</v>
@@ -1392,7 +1419,7 @@
         <v>10</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
@@ -1400,7 +1427,7 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0.6415277277277277</v>
+        <v>0.74094994994995</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>45</v>
@@ -1426,7 +1453,7 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.6415277277277277</v>
+        <v>0.7411487487487488</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>46</v>
@@ -1444,7 +1471,7 @@
         <v>10</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="39">
@@ -1452,7 +1479,7 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.7365473473473474</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>47</v>
@@ -1470,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
@@ -1478,7 +1505,7 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.7369515515515515</v>
+        <v>0.743548948948949</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>48</v>
@@ -1496,7 +1523,7 @@
         <v>10</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="41">
@@ -1504,7 +1531,7 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.7375501501501501</v>
+        <v>0.7447493493493493</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>49</v>
@@ -1530,7 +1557,7 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0.7365473473473474</v>
+        <v>0.743548948948949</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>50</v>
@@ -1548,7 +1575,7 @@
         <v>10</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
@@ -1556,7 +1583,7 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0.7365473473473474</v>
+        <v>0.7405481481481482</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>51</v>
@@ -1582,7 +1609,7 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0.7425515515515515</v>
+        <v>0.6441301301301301</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>52</v>
@@ -1608,7 +1635,7 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.6403269269269269</v>
+        <v>0.7405481481481482</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>53</v>
@@ -1626,7 +1653,7 @@
         <v>10</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
@@ -1634,7 +1661,7 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0.7365473473473474</v>
+        <v>0.74094994994995</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>54</v>
@@ -1660,22 +1687,22 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0.7423515515515515</v>
+        <v>0.743548948948949</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>55</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>1.0</v>
@@ -1686,13 +1713,13 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>0.7455507507507508</v>
+        <v>0.7411487487487488</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>1.0</v>
@@ -1701,10 +1728,10 @@
         <v>0.0</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="49">
@@ -1712,13 +1739,13 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0.7365473473473474</v>
+        <v>0.7377497497497496</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>1.0</v>
@@ -1727,7 +1754,7 @@
         <v>0.0</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>2.0</v>
@@ -1738,13 +1765,13 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0.735150950950951</v>
+        <v>0.66673013013013</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>1.0</v>
@@ -1753,10 +1780,10 @@
         <v>0.0</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="51">
@@ -1764,13 +1791,13 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0.725745945945946</v>
+        <v>0.7241405405405404</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>1.0</v>
@@ -1779,10 +1806,10 @@
         <v>0.0</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="52">
@@ -1790,13 +1817,13 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0.7369515515515515</v>
+        <v>0.6441301301301301</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>1.0</v>
@@ -1805,7 +1832,7 @@
         <v>0.0</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>2.0</v>
@@ -1816,13 +1843,13 @@
         <v>51.0</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0.6403269269269269</v>
+        <v>0.726547947947948</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>1.0</v>
@@ -1831,10 +1858,10 @@
         <v>0.0</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="54">
@@ -1842,13 +1869,13 @@
         <v>52.0</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>0.6939441441441442</v>
+        <v>0.6441301301301301</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>1.0</v>
@@ -1857,10 +1884,10 @@
         <v>0.0</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
@@ -1868,13 +1895,13 @@
         <v>53.0</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>0.7449505505505505</v>
+        <v>0.743548948948949</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>1.0</v>
@@ -1883,7 +1910,7 @@
         <v>0.0</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>2.0</v>
@@ -1894,13 +1921,13 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>0.7429515515515515</v>
+        <v>0.74094994994995</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>1.0</v>
@@ -1909,7 +1936,7 @@
         <v>0.0</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>1.0</v>
@@ -1920,13 +1947,13 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0.7437515515515515</v>
+        <v>0.7405481481481482</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>1.0</v>
@@ -1935,7 +1962,7 @@
         <v>0.0</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>1.0</v>
@@ -1946,13 +1973,13 @@
         <v>56.0</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0.7365473473473474</v>
+        <v>0.74094994994995</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>1.0</v>
@@ -1961,7 +1988,7 @@
         <v>0.0</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>2.0</v>
@@ -1972,13 +1999,13 @@
         <v>57.0</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0.7411515515515515</v>
+        <v>0.743548948948949</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>1.0</v>
@@ -1987,7 +2014,7 @@
         <v>0.0</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>1.0</v>
@@ -1998,13 +2025,13 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0.7425515515515515</v>
+        <v>0.7405481481481482</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>1.0</v>
@@ -2013,10 +2040,10 @@
         <v>0.0</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="61">
@@ -2024,13 +2051,13 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0.7365473473473474</v>
+        <v>0.6421295295295295</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>1.0</v>
@@ -2050,13 +2077,13 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>0.7365473473473474</v>
+        <v>0.7447493493493493</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>1.0</v>
@@ -2065,10 +2092,10 @@
         <v>0.0</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="63">
@@ -2076,13 +2103,13 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>0.6921457457457458</v>
+        <v>0.743548948948949</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>1.0</v>
@@ -2091,10 +2118,10 @@
         <v>0.0</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="64">
@@ -2102,13 +2129,13 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>0.7381483483483484</v>
+        <v>0.7373481481481482</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>1.0</v>
@@ -2117,7 +2144,7 @@
         <v>0.0</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>2.0</v>
@@ -2128,13 +2155,13 @@
         <v>63.0</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>0.7365473473473474</v>
+        <v>0.6441301301301301</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>1.0</v>
@@ -2143,10 +2170,10 @@
         <v>0.0</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="66">
@@ -2154,13 +2181,13 @@
         <v>64.0</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>0.6415277277277277</v>
+        <v>0.6421295295295295</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>1.0</v>
@@ -2169,10 +2196,10 @@
         <v>0.0</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="67">
@@ -2180,13 +2207,13 @@
         <v>65.0</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>0.7369515515515515</v>
+        <v>0.743548948948949</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>1.0</v>
@@ -2195,7 +2222,7 @@
         <v>0.0</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>2.0</v>
@@ -2206,13 +2233,13 @@
         <v>66.0</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>0.729947947947948</v>
+        <v>0.6441301301301301</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>1.0</v>
@@ -2221,10 +2248,10 @@
         <v>0.0</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="69">
@@ -2232,13 +2259,13 @@
         <v>67.0</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>0.7373515515515515</v>
+        <v>0.7405481481481482</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>1.0</v>
@@ -2247,7 +2274,7 @@
         <v>0.0</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>2.0</v>
@@ -2258,13 +2285,13 @@
         <v>68.0</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>0.7413507507507507</v>
+        <v>0.7405481481481482</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>1.0</v>
@@ -2273,10 +2300,10 @@
         <v>0.0</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="71">
@@ -2284,25 +2311,25 @@
         <v>69.0</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>0.734748148148148</v>
+        <v>0.7405481481481482</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D71" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G71" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E71" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F71" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>98</v>
-      </c>
       <c r="H71" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="72">
@@ -2310,13 +2337,13 @@
         <v>70.0</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>0.6403269269269269</v>
+        <v>0.7387481481481482</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>99</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>1.0</v>
@@ -2325,7 +2352,7 @@
         <v>0.0</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>2.0</v>
@@ -2336,13 +2363,13 @@
         <v>71.0</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>0.6403269269269269</v>
+        <v>0.7425487487487488</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>1.0</v>
@@ -2351,10 +2378,10 @@
         <v>0.0</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="74">
@@ -2362,13 +2389,13 @@
         <v>72.0</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>0.7365473473473474</v>
+        <v>0.7405481481481482</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>1.0</v>
@@ -2377,10 +2404,10 @@
         <v>0.0</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="75">
@@ -2388,13 +2415,13 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>0.7365473473473474</v>
+        <v>0.743548948948949</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>1.0</v>
@@ -2403,10 +2430,10 @@
         <v>0.0</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="76">
@@ -2414,13 +2441,13 @@
         <v>74.0</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>0.7425515515515515</v>
+        <v>0.74535015015015</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>1.0</v>
@@ -2429,7 +2456,7 @@
         <v>0.0</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>1.0</v>
@@ -2440,13 +2467,13 @@
         <v>75.0</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>0.7405505505505505</v>
+        <v>0.743548948948949</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>1.0</v>
@@ -2455,10 +2482,10 @@
         <v>0.0</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="78">
@@ -2466,13 +2493,13 @@
         <v>76.0</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>0.7365473473473474</v>
+        <v>0.7405481481481482</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>1.0</v>
@@ -2481,10 +2508,10 @@
         <v>0.0</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="79">
@@ -2492,25 +2519,25 @@
         <v>77.0</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>0.7425515515515515</v>
+        <v>0.6441301301301301</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="80">
@@ -2518,13 +2545,13 @@
         <v>78.0</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>0.6403269269269269</v>
+        <v>0.7405481481481482</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>1.0</v>
@@ -2533,7 +2560,7 @@
         <v>0.0</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>2.0</v>
@@ -2544,13 +2571,13 @@
         <v>79.0</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>0.7405515515515515</v>
+        <v>0.7229449449449449</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>114</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>1.0</v>
@@ -2559,10 +2586,10 @@
         <v>0.0</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="82">
@@ -2570,13 +2597,13 @@
         <v>80.0</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>0.7349465465465466</v>
+        <v>0.743548948948949</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>115</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>1.0</v>
@@ -2585,10 +2612,10 @@
         <v>0.0</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="83">
@@ -2596,13 +2623,13 @@
         <v>81.0</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>0.7429515515515515</v>
+        <v>0.7405481481481482</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>116</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>1.0</v>
@@ -2611,7 +2638,7 @@
         <v>0.0</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>2.0</v>
@@ -2622,13 +2649,13 @@
         <v>82.0</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>0.6403269269269269</v>
+        <v>0.7411487487487488</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>1.0</v>
@@ -2637,7 +2664,7 @@
         <v>0.0</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>1.0</v>
@@ -2648,13 +2675,13 @@
         <v>83.0</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>0.6403269269269269</v>
+        <v>0.7211487487487488</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>119</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>1.0</v>
@@ -2663,7 +2690,7 @@
         <v>0.0</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>2.0</v>
@@ -2674,22 +2701,22 @@
         <v>84.0</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>0.7251445445445445</v>
+        <v>0.74094994994995</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>1.0</v>
@@ -2700,13 +2727,13 @@
         <v>85.0</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>0.6403269269269269</v>
+        <v>0.7371481481481481</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>1.0</v>
@@ -2715,7 +2742,7 @@
         <v>0.0</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>2.0</v>
@@ -2726,13 +2753,13 @@
         <v>86.0</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>0.7365473473473474</v>
+        <v>0.7405481481481482</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>1.0</v>
@@ -2741,10 +2768,10 @@
         <v>0.0</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="89">
@@ -2752,13 +2779,13 @@
         <v>87.0</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>0.7425515515515515</v>
+        <v>0.7405481481481482</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>1.0</v>
@@ -2767,10 +2794,10 @@
         <v>0.0</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="90">
@@ -2778,13 +2805,13 @@
         <v>88.0</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>0.7365511511511512</v>
+        <v>0.74094994994995</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>1.0</v>
@@ -2793,7 +2820,7 @@
         <v>0.0</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>2.0</v>
@@ -2804,13 +2831,13 @@
         <v>89.0</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>0.7453515515515516</v>
+        <v>0.6421295295295295</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>1.0</v>
@@ -2819,10 +2846,10 @@
         <v>0.0</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="92">
@@ -2830,13 +2857,13 @@
         <v>90.0</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>0.7417513513513514</v>
+        <v>0.743548948948949</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>1.0</v>
@@ -2845,9 +2872,113 @@
         <v>0.0</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="H92" s="0" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>0.7469491491491491</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>0.6441301301301301</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G94" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H94" s="0" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>0.74094994994995</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G95" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="H95" s="0" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>0.6441301301301301</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G96" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="H96" s="0" t="n">
         <v>2.0</v>
       </c>
     </row>

--- a/Lab_01_AutoML/output/model_catalogue.xlsx
+++ b/Lab_01_AutoML/output/model_catalogue.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="136">
   <si>
     <t>Iteration</t>
   </si>
@@ -38,7 +38,7 @@
     <t>operator</t>
   </si>
   <si>
-    <t>KNeighborsClassifier(CombineDFs(input_matrix, input_matrix), KNeighborsClassifier__n_neighbors=23, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+    <t>DecisionTreeClassifier(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=27, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=6, DecisionTreeClassifier__min_samples_split=5)</t>
   </si>
   <si>
     <t>0</t>
@@ -47,385 +47,379 @@
     <t>('ROOT',)</t>
   </si>
   <si>
-    <t>KNeighborsClassifier(FeatureAgglomeration(input_matrix, FeatureAgglomeration__affinity=manhattan, FeatureAgglomeration__linkage=average), KNeighborsClassifier__n_neighbors=94, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(Normalizer(input_matrix, Normalizer__norm=l2), BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(CombineDFs(input_matrix, input_matrix), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=2)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.2), KNeighborsClassifier__n_neighbors=84, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+    <t>DecisionTreeClassifier(ZeroCount(input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=6, DecisionTreeClassifier__min_samples_split=9)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=30, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
   </si>
   <si>
     <t>GaussianNB(input_matrix)</t>
   </si>
   <si>
-    <t>DecisionTreeClassifier(CombineDFs(input_matrix, input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=10)</t>
+    <t>LogisticRegression(Normalizer(input_matrix, Normalizer__norm=l1), LogisticRegression__C=25.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>GaussianNB(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=34, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform))</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(PCA(input_matrix, PCA__iterated_power=1, PCA__svd_solver=randomized), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=10)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(MultinomialNB(input_matrix, MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=True), KNeighborsClassifier__n_neighbors=94, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=12, DecisionTreeClassifier__min_samples_split=8)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(PCA(input_matrix, PCA__iterated_power=6, PCA__svd_solver=randomized), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=50, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.05), KNeighborsClassifier__n_neighbors=43, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=8, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=6)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(GaussianNB(input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=16, DecisionTreeClassifier__min_samples_split=20)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=14, DecisionTreeClassifier__min_samples_split=10), KNeighborsClassifier__n_neighbors=15, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=13)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=61, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>LogisticRegression(input_matrix, LogisticRegression__C=10.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(Normalizer(input_matrix, Normalizer__norm=l1), KNeighborsClassifier__n_neighbors=29, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(StandardScaler(input_matrix), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=12), KNeighborsClassifier__n_neighbors=70, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=16, DecisionTreeClassifier__min_samples_split=4)</t>
+  </si>
+  <si>
+    <t>LogisticRegression(MaxAbsScaler(input_matrix), LogisticRegression__C=5.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>GaussianNB(SelectPercentile(input_matrix, SelectPercentile__percentile=74))</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=40, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=False), KNeighborsClassifier__n_neighbors=60, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=2, DecisionTreeClassifier__min_samples_split=15)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(RobustScaler(input_matrix), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=17, DecisionTreeClassifier__min_samples_split=3)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=72, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=17)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.005), MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>GaussianNB(MinMaxScaler(input_matrix))</t>
+  </si>
+  <si>
+    <t>LogisticRegression(input_matrix, LogisticRegression__C=20.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>LogisticRegression(CombineDFs(input_matrix, input_matrix), LogisticRegression__C=20.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>LogisticRegression(input_matrix, LogisticRegression__C=1.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(SelectPercentile(input_matrix, SelectPercentile__percentile=1), MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(Normalizer(input_matrix, Normalizer__norm=l1), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=17, DecisionTreeClassifier__min_samples_split=19)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=18, DecisionTreeClassifier__min_samples_split=5)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>('GaussianNB(input_matrix)',)</t>
+  </si>
+  <si>
+    <t>GaussianNB(MaxAbsScaler(input_matrix))</t>
+  </si>
+  <si>
+    <t>GaussianNB(Binarizer(input_matrix, Binarizer__threshold=0.1))</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(MultinomialNB(input_matrix, MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=False), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=12, DecisionTreeClassifier__min_samples_split=8)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=12, DecisionTreeClassifier__min_samples_split=8)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(DecisionTreeClassifier(GaussianNB(input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=12), KNeighborsClassifier__n_neighbors=70, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=12), KNeighborsClassifier__n_neighbors=70, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=18, DecisionTreeClassifier__min_samples_split=4)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=16, DecisionTreeClassifier__min_samples_split=4)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=19, DecisionTreeClassifier__min_samples_split=10), KNeighborsClassifier__n_neighbors=72, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=72, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=17, DecisionTreeClassifier__min_samples_split=19)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(Normalizer(input_matrix, Normalizer__norm=l1), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=17, DecisionTreeClassifier__min_samples_split=19)',)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>('MultinomialNB(input_matrix, MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=False)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(ZeroCount(input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=6, DecisionTreeClassifier__min_samples_split=9)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(ZeroCount(input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=6, DecisionTreeClassifier__min_samples_split=9)', 'DecisionTreeClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=17)')</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=15, DecisionTreeClassifier__min_samples_split=7)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=17)',)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(StandardScaler(MinMaxScaler(input_matrix)), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(StandardScaler(input_matrix), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(MultinomialNB(input_matrix, MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=True), KNeighborsClassifier__n_neighbors=94, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(MultinomialNB(input_matrix, MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=True), KNeighborsClassifier__n_neighbors=94, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)',)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(Binarizer(SelectPercentile(input_matrix, SelectPercentile__percentile=1), Binarizer__threshold=0.7000000000000001), MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>('MultinomialNB(SelectPercentile(input_matrix, SelectPercentile__percentile=1), MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=False)',)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(ZeroCount(input_matrix), MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=12), KNeighborsClassifier__n_neighbors=70, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>('MultinomialNB(input_matrix, MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=True)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=38, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=6, DecisionTreeClassifier__min_samples_split=5)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=27, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=6, DecisionTreeClassifier__min_samples_split=5)',)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(SelectPercentile(input_matrix, SelectPercentile__percentile=80), BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=True)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=8, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=13)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=13)',)</t>
+  </si>
+  <si>
+    <t>GaussianNB(PCA(input_matrix, PCA__iterated_power=4, PCA__svd_solver=randomized))</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=False), KNeighborsClassifier__n_neighbors=40, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=False), KNeighborsClassifier__n_neighbors=60, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)', 'KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=40, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)')</t>
+  </si>
+  <si>
+    <t>LogisticRegression(input_matrix, LogisticRegression__C=0.5, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>('LogisticRegression(input_matrix, LogisticRegression__C=10.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=15, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=14, DecisionTreeClassifier__min_samples_split=10), KNeighborsClassifier__n_neighbors=15, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=30, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=30, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)',)</t>
+  </si>
+  <si>
+    <t>GaussianNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=16))</t>
+  </si>
+  <si>
+    <t>LogisticRegression(input_matrix, LogisticRegression__C=0.0001, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(RobustScaler(input_matrix), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=8, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=6)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=8, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=6)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=15, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>GaussianNB(SelectPercentile(input_matrix, SelectPercentile__percentile=63))</t>
+  </si>
+  <si>
+    <t>('GaussianNB(SelectPercentile(input_matrix, SelectPercentile__percentile=74))',)</t>
   </si>
   <si>
     <t>BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)</t>
   </si>
   <si>
-    <t>LogisticRegression(input_matrix, LogisticRegression__C=1.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
-  </si>
-  <si>
-    <t>GaussianNB(SelectPercentile(input_matrix, SelectPercentile__percentile=9))</t>
-  </si>
-  <si>
-    <t>BernoulliNB(Binarizer(input_matrix, Binarizer__threshold=0.15000000000000002), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(SelectPercentile(input_matrix, SelectPercentile__percentile=55), MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=30, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=19)</t>
-  </si>
-  <si>
-    <t>GaussianNB(MaxAbsScaler(input_matrix))</t>
-  </si>
-  <si>
-    <t>BernoulliNB(SelectPercentile(input_matrix, SelectPercentile__percentile=23), BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(Binarizer(input_matrix, Binarizer__threshold=0.8500000000000001), KNeighborsClassifier__n_neighbors=89, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=9, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=31, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(CombineDFs(input_matrix, input_matrix), MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=15, DecisionTreeClassifier__min_samples_split=5), BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>GaussianNB(RBFSampler(input_matrix, RBFSampler__gamma=0.05))</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=3, DecisionTreeClassifier__min_samples_split=6)</t>
-  </si>
-  <si>
-    <t>GaussianNB(MultinomialNB(input_matrix, MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=False))</t>
-  </si>
-  <si>
-    <t>BernoulliNB(GaussianNB(input_matrix), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=14, DecisionTreeClassifier__min_samples_split=16)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=8)</t>
-  </si>
-  <si>
-    <t>GaussianNB(BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False))</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=3, DecisionTreeClassifier__min_samples_leaf=14, DecisionTreeClassifier__min_samples_split=7)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=14, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>GaussianNB(StandardScaler(input_matrix))</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(StandardScaler(input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=6, DecisionTreeClassifier__min_samples_split=6)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=15)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=31, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=11)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(MinMaxScaler(input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=13)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=2, DecisionTreeClassifier__min_samples_split=19)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(PCA(input_matrix, PCA__iterated_power=9, PCA__svd_solver=randomized), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>LogisticRegression(input_matrix, LogisticRegression__C=15.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=16)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=20)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>('LogisticRegression(input_matrix, LogisticRegression__C=15.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)',)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(SelectFwe(input_matrix, SelectFwe__alpha=0.022), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(FeatureAgglomeration(input_matrix, FeatureAgglomeration__affinity=l2, FeatureAgglomeration__linkage=complete), KNeighborsClassifier__n_neighbors=14, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=14, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)',)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(RBFSampler(input_matrix, RBFSampler__gamma=0.05), BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('GaussianNB(RBFSampler(input_matrix, RBFSampler__gamma=0.05))',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=True), KNeighborsClassifier__n_neighbors=9, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=9, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)',)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(RBFSampler(input_matrix, RBFSampler__gamma=0.8), BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=True)',)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(PCA(RBFSampler(input_matrix, RBFSampler__gamma=1.0), PCA__iterated_power=9, PCA__svd_solver=randomized), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(PCA(input_matrix, PCA__iterated_power=9, PCA__svd_solver=randomized), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)',)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=False)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(CombineDFs(BernoulliNB(input_matrix, BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=True), input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=10)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(CombineDFs(input_matrix, input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=10)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(CombineDFs(input_matrix, input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=16)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=16)',)</t>
+    <t>DecisionTreeClassifier(RBFSampler(input_matrix, RBFSampler__gamma=1.0), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=2, DecisionTreeClassifier__min_samples_split=15)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=2, DecisionTreeClassifier__min_samples_split=15)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=29, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(Normalizer(input_matrix, Normalizer__norm=l1), KNeighborsClassifier__n_neighbors=29, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)',)</t>
+  </si>
+  <si>
+    <t>LogisticRegression(MultinomialNB(input_matrix, MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=True), LogisticRegression__C=20.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>('LogisticRegression(input_matrix, LogisticRegression__C=20.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)',)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>('MultinomialNB(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.005), MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=False)',)</t>
+  </si>
+  <si>
+    <t>GaussianNB(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.2))</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=30, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(ZeroCount(input_matrix), KNeighborsClassifier__n_neighbors=40, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=40, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=16, DecisionTreeClassifier__min_samples_split=8)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.05), MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>('MultinomialNB(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.005), MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=False)', 'KNeighborsClassifier(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.05), KNeighborsClassifier__n_neighbors=43, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)')</t>
   </si>
   <si>
     <t>MultinomialNB(input_matrix, MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True)</t>
   </si>
   <si>
-    <t>('MultinomialNB(input_matrix, MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=True)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=16)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=19)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=30, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=19)',)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(RobustScaler(Binarizer(input_matrix, Binarizer__threshold=0.15000000000000002)), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(Binarizer(input_matrix, Binarizer__threshold=0.15000000000000002), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False)',)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(MinMaxScaler(input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=18, DecisionTreeClassifier__min_samples_split=13)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(MinMaxScaler(input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=13)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=4, DecisionTreeClassifier__min_samples_split=6)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=3, DecisionTreeClassifier__min_samples_split=6)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(StandardScaler(input_matrix), KNeighborsClassifier__n_neighbors=35, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>('GaussianNB(StandardScaler(input_matrix))',)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(CombineDFs(input_matrix, MultinomialNB(input_matrix, MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=False)), MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>('MultinomialNB(CombineDFs(input_matrix, input_matrix), MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=False)',)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(CombineDFs(input_matrix, DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=20, DecisionTreeClassifier__min_samples_split=5)), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=10)</t>
-  </si>
-  <si>
-    <t>GaussianNB(BernoulliNB(input_matrix, BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=False))</t>
-  </si>
-  <si>
-    <t>('GaussianNB(BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False))',)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(PCA(input_matrix, PCA__iterated_power=4, PCA__svd_solver=randomized), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(PCA(MaxAbsScaler(input_matrix), PCA__iterated_power=9, PCA__svd_solver=randomized), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>LogisticRegression(SelectPercentile(input_matrix, SelectPercentile__percentile=27), LogisticRegression__C=15.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(StandardScaler(CombineDFs(input_matrix, input_matrix)), KNeighborsClassifier__n_neighbors=23, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(CombineDFs(input_matrix, input_matrix), KNeighborsClassifier__n_neighbors=23, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)',)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)',)</t>
-  </si>
-  <si>
-    <t>LogisticRegression(input_matrix, LogisticRegression__C=0.01, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
-  </si>
-  <si>
-    <t>('LogisticRegression(input_matrix, LogisticRegression__C=1.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=15)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=11)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=93, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>('GaussianNB(input_matrix)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=8)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=8)',)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(MinMaxScaler(input_matrix), MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(Binarizer(input_matrix, Binarizer__threshold=0.30000000000000004), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(PCA(input_matrix, PCA__iterated_power=9, PCA__svd_solver=randomized), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(ZeroCount(input_matrix), KNeighborsClassifier__n_neighbors=9, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(ZeroCount(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=30, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=19)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(Binarizer(input_matrix, Binarizer__threshold=0.9500000000000001), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=14, DecisionTreeClassifier__min_samples_split=16)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=14, DecisionTreeClassifier__min_samples_split=16)',)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(Normalizer(input_matrix, Normalizer__norm=l1), KNeighborsClassifier__n_neighbors=31, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=31, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=13)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=16)', 'DecisionTreeClassifier(MinMaxScaler(input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=13)')</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(Binarizer(input_matrix, Binarizer__threshold=0.8500000000000001), KNeighborsClassifier__n_neighbors=51, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(Binarizer(input_matrix, Binarizer__threshold=0.8500000000000001), KNeighborsClassifier__n_neighbors=89, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)',)</t>
-  </si>
-  <si>
-    <t>GaussianNB(SelectPercentile(input_matrix, SelectPercentile__percentile=84))</t>
-  </si>
-  <si>
-    <t>('GaussianNB(SelectPercentile(input_matrix, SelectPercentile__percentile=9))',)</t>
-  </si>
-  <si>
-    <t>GaussianNB(SelectPercentile(StandardScaler(input_matrix), SelectPercentile__percentile=51))</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(MultinomialNB(input_matrix, MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=16)</t>
-  </si>
-  <si>
-    <t>GaussianNB(StandardScaler(MultinomialNB(input_matrix, MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=False)))</t>
-  </si>
-  <si>
-    <t>('GaussianNB(MultinomialNB(input_matrix, MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=False))',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=14, DecisionTreeClassifier__min_samples_split=7)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=3, DecisionTreeClassifier__min_samples_leaf=14, DecisionTreeClassifier__min_samples_split=7)',)</t>
-  </si>
-  <si>
-    <t>GaussianNB(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.05))</t>
-  </si>
-  <si>
-    <t>GaussianNB(CombineDFs(input_matrix, input_matrix))</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=9)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=15)',)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(ZeroCount(input_matrix), MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=False)</t>
+    <t>BernoulliNB(Binarizer(input_matrix, Binarizer__threshold=0.35000000000000003), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)',)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(BernoulliNB(input_matrix, BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=True), MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>('MultinomialNB(input_matrix, MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=True)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=27, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=10, DecisionTreeClassifier__min_samples_split=5)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=17, DecisionTreeClassifier__min_samples_split=3)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(RobustScaler(input_matrix), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=17, DecisionTreeClassifier__min_samples_split=3)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=89, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=61, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=57, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
   </si>
 </sst>
 </file>
@@ -470,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -517,7 +511,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7387481481481482</v>
+        <v>0.7413443443443443</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -535,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -543,7 +537,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.7447495495495495</v>
+        <v>0.7429479479479479</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -569,7 +563,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.6441301301301301</v>
+        <v>0.6327253253253253</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>12</v>
@@ -587,7 +581,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -595,7 +589,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.7405481481481482</v>
+        <v>0.7391469469469469</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>13</v>
@@ -621,7 +615,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.7405481481481482</v>
+        <v>0.741148948948949</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>14</v>
@@ -639,7 +633,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -647,7 +641,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.7469491491491491</v>
+        <v>0.7427489489489489</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>15</v>
@@ -665,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -673,7 +667,7 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.743548948948949</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>16</v>
@@ -699,7 +693,7 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.7425487487487488</v>
+        <v>0.713140940940941</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>17</v>
@@ -717,7 +711,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -725,7 +719,7 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.7405481481481482</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>18</v>
@@ -751,7 +745,7 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.7405481481481482</v>
+        <v>0.7429479479479479</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>19</v>
@@ -777,7 +771,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.6441301301301301</v>
+        <v>0.7429479479479479</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>20</v>
@@ -803,7 +797,7 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.7405481481481482</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>21</v>
@@ -821,7 +815,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -829,7 +823,7 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.743548948948949</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>22</v>
@@ -855,7 +849,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.7469491491491491</v>
+        <v>0.7405457457457457</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>23</v>
@@ -873,7 +867,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
@@ -881,7 +875,7 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.6441301301301301</v>
+        <v>0.7389457457457457</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>24</v>
@@ -907,7 +901,7 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.6421295295295295</v>
+        <v>0.7429479479479479</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>25</v>
@@ -933,7 +927,7 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.7405481481481482</v>
+        <v>0.6303245245245245</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>26</v>
@@ -951,7 +945,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -959,7 +953,7 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.7301469469469469</v>
+        <v>0.6303245245245245</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>27</v>
@@ -985,7 +979,7 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.7403481481481482</v>
+        <v>0.749347947947948</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>28</v>
@@ -1003,7 +997,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
@@ -1011,7 +1005,7 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.7405481481481482</v>
+        <v>0.7357465465465465</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>29</v>
@@ -1029,7 +1023,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="22">
@@ -1037,7 +1031,7 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.6421295295295295</v>
+        <v>0.749347947947948</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>30</v>
@@ -1063,7 +1057,7 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.6441301301301301</v>
+        <v>0.743346146146146</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>31</v>
@@ -1081,7 +1075,7 @@
         <v>10</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
@@ -1089,7 +1083,7 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.6441301301301301</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>32</v>
@@ -1107,7 +1101,7 @@
         <v>10</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
@@ -1115,7 +1109,7 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.743548948948949</v>
+        <v>0.7427489489489489</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>33</v>
@@ -1133,7 +1127,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="26">
@@ -1141,7 +1135,7 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.6421295295295295</v>
+        <v>0.7395481481481481</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>34</v>
@@ -1159,7 +1153,7 @@
         <v>10</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
@@ -1167,7 +1161,7 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.6441301301301301</v>
+        <v>0.6327253253253253</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>35</v>
@@ -1185,7 +1179,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
@@ -1193,7 +1187,7 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.743548948948949</v>
+        <v>0.6327253253253253</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>36</v>
@@ -1211,7 +1205,7 @@
         <v>10</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="29">
@@ -1219,7 +1213,7 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.6441301301301301</v>
+        <v>0.7455471471471471</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>37</v>
@@ -1237,7 +1231,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
@@ -1245,7 +1239,7 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.743548948948949</v>
+        <v>0.7429479479479479</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>38</v>
@@ -1271,7 +1265,7 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.6441301301301301</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>39</v>
@@ -1297,7 +1291,7 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.7453491491491491</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>40</v>
@@ -1315,7 +1309,7 @@
         <v>10</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="33">
@@ -1323,7 +1317,7 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0.7371485485485485</v>
+        <v>0.7385457457457457</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>41</v>
@@ -1349,7 +1343,7 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.7411487487487488</v>
+        <v>0.7459487487487488</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>42</v>
@@ -1367,7 +1361,7 @@
         <v>10</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="35">
@@ -1375,7 +1369,7 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.7469491491491491</v>
+        <v>0.7429479479479479</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>43</v>
@@ -1393,7 +1387,7 @@
         <v>10</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
@@ -1401,7 +1395,7 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.743548948948949</v>
+        <v>0.7429479479479479</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>44</v>
@@ -1427,7 +1421,7 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0.74094994994995</v>
+        <v>0.746347947947948</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>45</v>
@@ -1453,7 +1447,7 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.7411487487487488</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>46</v>
@@ -1471,7 +1465,7 @@
         <v>10</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="39">
@@ -1479,7 +1473,7 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.7403481481481482</v>
+        <v>0.6303245245245245</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>47</v>
@@ -1497,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="40">
@@ -1505,7 +1499,7 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.743548948948949</v>
+        <v>0.741148948948949</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>48</v>
@@ -1523,7 +1517,7 @@
         <v>10</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="41">
@@ -1531,7 +1525,7 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.7447493493493493</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>49</v>
@@ -1549,7 +1543,7 @@
         <v>10</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
@@ -1557,7 +1551,7 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0.743548948948949</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>50</v>
@@ -1583,7 +1577,7 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0.7405481481481482</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>51</v>
@@ -1601,7 +1595,7 @@
         <v>10</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
@@ -1609,7 +1603,7 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0.6441301301301301</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>52</v>
@@ -1635,7 +1629,7 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.7405481481481482</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>53</v>
@@ -1653,7 +1647,7 @@
         <v>10</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="46">
@@ -1661,7 +1655,7 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0.74094994994995</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>54</v>
@@ -1679,7 +1673,7 @@
         <v>10</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="47">
@@ -1687,7 +1681,7 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0.743548948948949</v>
+        <v>0.7429479479479479</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>55</v>
@@ -1713,7 +1707,7 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>0.7411487487487488</v>
+        <v>0.741148948948949</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>58</v>
@@ -1728,7 +1722,7 @@
         <v>0.0</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>2.0</v>
@@ -1739,10 +1733,10 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0.7377497497497496</v>
+        <v>0.7491497497497497</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>56</v>
@@ -1754,7 +1748,7 @@
         <v>0.0</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>2.0</v>
@@ -1765,10 +1759,10 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0.66673013013013</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>56</v>
@@ -1780,7 +1774,7 @@
         <v>0.0</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>2.0</v>
@@ -1791,10 +1785,10 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0.7241405405405404</v>
+        <v>0.7471487487487487</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>56</v>
@@ -1806,10 +1800,10 @@
         <v>0.0</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="52">
@@ -1817,10 +1811,10 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0.6441301301301301</v>
+        <v>0.7429479479479479</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>56</v>
@@ -1832,10 +1826,10 @@
         <v>0.0</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="53">
@@ -1843,10 +1837,10 @@
         <v>51.0</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0.726547947947948</v>
+        <v>0.745947947947948</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>56</v>
@@ -1858,10 +1852,10 @@
         <v>0.0</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="54">
@@ -1869,10 +1863,10 @@
         <v>52.0</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>0.6441301301301301</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>56</v>
@@ -1884,7 +1878,7 @@
         <v>0.0</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>1.0</v>
@@ -1895,10 +1889,10 @@
         <v>53.0</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>0.743548948948949</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>56</v>
@@ -1910,10 +1904,10 @@
         <v>0.0</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="56">
@@ -1921,10 +1915,10 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>0.74094994994995</v>
+        <v>0.6327253253253253</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>56</v>
@@ -1936,7 +1930,7 @@
         <v>0.0</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>1.0</v>
@@ -1947,25 +1941,25 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0.7405481481481482</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="58">
@@ -1973,10 +1967,10 @@
         <v>56.0</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0.74094994994995</v>
+        <v>0.7429479479479479</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>56</v>
@@ -1988,7 +1982,7 @@
         <v>0.0</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>2.0</v>
@@ -1999,10 +1993,10 @@
         <v>57.0</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0.743548948948949</v>
+        <v>0.6327253253253253</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>56</v>
@@ -2014,10 +2008,10 @@
         <v>0.0</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="60">
@@ -2025,10 +2019,10 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0.7405481481481482</v>
+        <v>0.7429479479479479</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>56</v>
@@ -2040,10 +2034,10 @@
         <v>0.0</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="61">
@@ -2051,10 +2045,10 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0.6421295295295295</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>56</v>
@@ -2066,10 +2060,10 @@
         <v>0.0</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="62">
@@ -2077,10 +2071,10 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>0.7447493493493493</v>
+        <v>0.6327253253253253</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>56</v>
@@ -2092,7 +2086,7 @@
         <v>0.0</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>2.0</v>
@@ -2103,10 +2097,10 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>0.743548948948949</v>
+        <v>0.7455471471471471</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>56</v>
@@ -2118,10 +2112,10 @@
         <v>0.0</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="64">
@@ -2129,10 +2123,10 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>0.7373481481481482</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>56</v>
@@ -2144,10 +2138,10 @@
         <v>0.0</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="65">
@@ -2155,10 +2149,10 @@
         <v>63.0</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>0.6441301301301301</v>
+        <v>0.7397443443443443</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>56</v>
@@ -2170,7 +2164,7 @@
         <v>0.0</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>2.0</v>
@@ -2181,10 +2175,10 @@
         <v>64.0</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>0.6421295295295295</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>56</v>
@@ -2196,10 +2190,10 @@
         <v>0.0</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="67">
@@ -2207,10 +2201,10 @@
         <v>65.0</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>0.743548948948949</v>
+        <v>0.7429479479479479</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>56</v>
@@ -2222,10 +2216,10 @@
         <v>0.0</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="68">
@@ -2233,10 +2227,10 @@
         <v>66.0</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>0.6441301301301301</v>
+        <v>0.740748948948949</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>56</v>
@@ -2248,7 +2242,7 @@
         <v>0.0</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>2.0</v>
@@ -2259,22 +2253,22 @@
         <v>67.0</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>0.7405481481481482</v>
+        <v>0.7411481481481481</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>2.0</v>
@@ -2285,25 +2279,25 @@
         <v>68.0</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>0.7405481481481482</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C70" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G70" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E70" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F70" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G70" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="H70" s="0" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="71">
@@ -2311,7 +2305,7 @@
         <v>69.0</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>0.7405481481481482</v>
+        <v>0.73794994994995</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>98</v>
@@ -2326,10 +2320,10 @@
         <v>0.0</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="72">
@@ -2337,10 +2331,10 @@
         <v>70.0</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>0.7387481481481482</v>
+        <v>0.7391469469469469</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>56</v>
@@ -2352,10 +2346,10 @@
         <v>0.0</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="73">
@@ -2363,10 +2357,10 @@
         <v>71.0</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>0.7425487487487488</v>
+        <v>0.7143399399399399</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>56</v>
@@ -2378,10 +2372,10 @@
         <v>0.0</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="74">
@@ -2389,7 +2383,7 @@
         <v>72.0</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>0.7405481481481482</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>103</v>
@@ -2404,7 +2398,7 @@
         <v>0.0</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>1.0</v>
@@ -2415,25 +2409,25 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>0.743548948948949</v>
+        <v>0.7429479479479479</v>
       </c>
       <c r="C75" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G75" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="D75" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E75" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F75" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>106</v>
-      </c>
       <c r="H75" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="76">
@@ -2441,10 +2435,10 @@
         <v>74.0</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>0.74535015015015</v>
+        <v>0.73794994994995</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>56</v>
@@ -2456,7 +2450,7 @@
         <v>0.0</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>1.0</v>
@@ -2467,10 +2461,10 @@
         <v>75.0</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>0.743548948948949</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>56</v>
@@ -2482,10 +2476,10 @@
         <v>0.0</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="78">
@@ -2493,10 +2487,10 @@
         <v>76.0</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>0.7405481481481482</v>
+        <v>0.7427489489489489</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>56</v>
@@ -2508,10 +2502,10 @@
         <v>0.0</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="79">
@@ -2519,10 +2513,10 @@
         <v>77.0</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>0.6441301301301301</v>
+        <v>0.7429479479479479</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>56</v>
@@ -2534,7 +2528,7 @@
         <v>0.0</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="H79" s="0" t="n">
         <v>2.0</v>
@@ -2545,25 +2539,25 @@
         <v>78.0</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>0.7405481481481482</v>
+        <v>0.740946946946947</v>
       </c>
       <c r="C80" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G80" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="D80" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E80" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F80" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G80" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="H80" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="81">
@@ -2571,7 +2565,7 @@
         <v>79.0</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>0.7229449449449449</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>114</v>
@@ -2586,7 +2580,7 @@
         <v>0.0</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>2.0</v>
@@ -2597,10 +2591,10 @@
         <v>80.0</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>0.743548948948949</v>
+        <v>0.6303245245245245</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>56</v>
@@ -2612,10 +2606,10 @@
         <v>0.0</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="83">
@@ -2623,10 +2617,10 @@
         <v>81.0</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>0.7405481481481482</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>56</v>
@@ -2638,7 +2632,7 @@
         <v>0.0</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>2.0</v>
@@ -2649,10 +2643,10 @@
         <v>82.0</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>0.7411487487487488</v>
+        <v>0.7391469469469469</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>56</v>
@@ -2664,7 +2658,7 @@
         <v>0.0</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>1.0</v>
@@ -2675,10 +2669,10 @@
         <v>83.0</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>0.7211487487487488</v>
+        <v>0.7405461461461462</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>56</v>
@@ -2690,7 +2684,7 @@
         <v>0.0</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>2.0</v>
@@ -2701,22 +2695,22 @@
         <v>84.0</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>0.74094994994995</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>1.0</v>
@@ -2727,7 +2721,7 @@
         <v>85.0</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>0.7371481481481481</v>
+        <v>0.6303245245245245</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>123</v>
@@ -2736,10 +2730,10 @@
         <v>56</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>124</v>
@@ -2753,7 +2747,7 @@
         <v>86.0</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>0.7405481481481482</v>
+        <v>0.7403481481481482</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>125</v>
@@ -2768,10 +2762,10 @@
         <v>0.0</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="89">
@@ -2779,25 +2773,25 @@
         <v>87.0</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>0.7405481481481482</v>
+        <v>0.6327253253253253</v>
       </c>
       <c r="C89" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G89" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D89" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E89" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F89" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G89" s="0" t="s">
-        <v>89</v>
-      </c>
       <c r="H89" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="90">
@@ -2805,7 +2799,7 @@
         <v>88.0</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>0.74094994994995</v>
+        <v>0.7395481481481481</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>128</v>
@@ -2820,7 +2814,7 @@
         <v>0.0</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>2.0</v>
@@ -2831,10 +2825,10 @@
         <v>89.0</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>0.6421295295295295</v>
+        <v>0.7413443443443443</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>56</v>
@@ -2846,10 +2840,10 @@
         <v>0.0</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="92">
@@ -2857,7 +2851,7 @@
         <v>90.0</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>0.743548948948949</v>
+        <v>0.7429479479479479</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>131</v>
@@ -2883,7 +2877,7 @@
         <v>91.0</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>0.7469491491491491</v>
+        <v>0.7431479479479479</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>133</v>
@@ -2898,10 +2892,10 @@
         <v>0.0</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="94">
@@ -2909,77 +2903,25 @@
         <v>92.0</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>0.6441301301301301</v>
+        <v>0.7409471471471472</v>
       </c>
       <c r="C94" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G94" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="D94" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E94" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F94" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G94" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="H94" s="0" t="n">
         <v>1.0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="0" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="B95" s="0" t="n">
-        <v>0.74094994994995</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E95" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F95" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G95" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="H95" s="0" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="0" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="B96" s="0" t="n">
-        <v>0.6441301301301301</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E96" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F96" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G96" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="H96" s="0" t="n">
-        <v>2.0</v>
       </c>
     </row>
   </sheetData>
